--- a/Experiments_Code/Range_Testing_Experiment/Range_Experiment_MidFilt_Dist1.xlsx
+++ b/Experiments_Code/Range_Testing_Experiment/Range_Experiment_MidFilt_Dist1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamin\Desktop\LiDAR_Motion_Comp_Feature_Extract_Repo\LiDAR-Motion-Compensation-and-Feature-Extraction\Experiments_Code\Range_Testing_Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214CBB9-5FF3-43AD-9C5D-EBA980AA1F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9137E-BCC2-46DB-869D-9B0138BC6FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C0797A8-E988-438B-955B-116986FDC2A4}"/>
   </bookViews>
